--- a/frontend/kskcolle/public/data/erelijsten/herfst.xlsx
+++ b/frontend/kskcolle/public/data/erelijsten/herfst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a822bf281130dcc6/Documenten/Schaken/Website KSK Colle/_/erelijsten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvaer\Documents\KSKColle\frontend\kskcolle\public\data\erelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{42C7D013-C603-44A5-AAA3-F9D1BFBCF991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB1CD8C-32CC-4AB9-974D-C2682D8969CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E524D4C-0E59-42E6-8A68-5E22ABA66E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Herfstkampioenschap" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
   <si>
     <t>Jaar</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Pieter-Jan Orban</t>
+  </si>
+  <si>
+    <t>Matthias Baes</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -907,7 +910,7 @@
       </c>
       <c r="M5" s="15">
         <f>COUNTIF($G:$G,"Niels Ongena*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="16">
         <f>COUNTIF($I:$I,"Niels Ongena*")</f>
@@ -1185,7 +1188,7 @@
       </c>
       <c r="K11" s="13">
         <f>COUNTIF($C:$C,"Pieter-Jan Orban*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="14">
         <f>COUNTIF($E:$E,"Pieter-Jan Orban*")</f>
@@ -1661,15 +1664,33 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="4"/>
+      <c r="A23" s="5">
+        <v>2026</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
